--- a/네이버뉴스/sports_test.xlsx
+++ b/네이버뉴스/sports_test.xlsx
@@ -17,16 +17,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +34,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -45,21 +42,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,267 +413,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>제목</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>날짜</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>노리치전 1골 1도움 손흥민, EPL 공식 '시어러의 베스트11' 선정</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2021.12.08 09:48</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>앨런 시어러에게 pick당한 손흥민, EPL 15R 베스트11에 선정</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2021.12.08 09:48</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>'1골 1도움' 손흥민, 시어러 선정 EPL 15R 베스트11 포함</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021.12.08 09:48</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>AT 마드리드, 포르투 3-1로 잡고 UCL 16강행…AC 밀란은 탈락</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021.12.08 09:48</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>부상 복귀 하루 만에 코로나 양성 '날벼락'→임대생 MF는 '선발 행운'</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021.12.08 09:47</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>PL, 오미크론 확산으로 인해 다시 관중 출입 금지할까..."상황 고려 중"</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2021.12.08 09:46</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>영국 언론 "토트넘, 코로나 집단 감염... 손흥민도 포함"</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2021.12.08 09:45</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>'1골 1도움' 손흥민, EPL 공식 '시어러의 베스트11' 선정</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>2021.12.08 09:45</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>기적 같은 16강행...오블락 "마지막까지 몰랐다"</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>2021.12.08 09:43</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>UCL 그룹 스테이지에선 호날두보다 '메시가' 앞서간다</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>2021.12.08 09:38</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>英 매체 "손흥민, 코로나19 양성 반응"</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>2021.12.08 09:37</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>손흥민, 잉글랜드 전설 시어러가 뽑은 '이주의 팀' 선정</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>2021.12.08 09:37</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>임시직에도 감격한 세르비아 스타 "내가 맨유 주장 되다니"</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>2021.12.08 09:36</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>'임시 감독 맞아?' 맨유, 랑닉 위해 '1500억' 지원한다...영입 후보는?</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>2021.12.08 09:31</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>아무리 화났다지만…'주먹 휘둘러 퇴장', 경기도 매너도 졌다</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>2021.12.08 09:31</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>토트넘, '제2의 모드리치' 노린다..."창의력 불어넣을 선수"</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>2021.12.08 09:27</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>'EPL 빅3 vs 라리가 빅2', 월클 스트라이커 얼링 할란드 격변의 중심에 서다.</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>2021.12.08 09:26</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>AT 마드리드, B조 2위로 UCL 16강 진출…포르투에 3 대 1 승리</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>2021.12.08 09:25</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>리버풀 조별 '전승', 아틀레티코 '구사일생'… UCL 16강 진출 12개 팀 확정</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>2021.12.08 09:20</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>'홀란드 멀티골' BVB, 베식타스에 5-0 '대승'...하지만 UEL로</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>2021.12.08 09:19</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>